--- a/reference_files/HSMR_NHSPerforms.xlsx
+++ b/reference_files/HSMR_NHSPerforms.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="0" windowWidth="10515" windowHeight="11760" tabRatio="701" activeTab="3"/>
+    <workbookView xWindow="-165" yWindow="0" windowWidth="10515" windowHeight="11760" tabRatio="701"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="76" r:id="rId1"/>
@@ -22,6 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">data_smr!$A$1:$F$497</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">hospital_lookup!$A$2:$D$32</definedName>
     <definedName name="_Toc458414526" localSheetId="1">'HSMR BackgroundInfo'!$A$65</definedName>
     <definedName name="SPSS" localSheetId="2">#REF!</definedName>
     <definedName name="SPSS">#REF!</definedName>
@@ -90,13 +91,7 @@
     <t>S08000020</t>
   </si>
   <si>
-    <t>S08000021</t>
-  </si>
-  <si>
     <t>S08000022</t>
-  </si>
-  <si>
-    <t>S08000023</t>
   </si>
   <si>
     <t>S08000024</t>
@@ -648,6 +643,12 @@
       </rPr>
       <t>1,2</t>
     </r>
+  </si>
+  <si>
+    <t>S08000031</t>
+  </si>
+  <si>
+    <t>S08000032</t>
   </si>
 </sst>
 </file>
@@ -1467,7 +1468,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1478,12 +1479,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="30" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -1491,42 +1492,42 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1559,57 +1560,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -1617,42 +1618,42 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
@@ -1660,157 +1661,157 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:1" s="2" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A67" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1818,7 +1819,7 @@
     </row>
     <row r="69" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1841,7 +1842,7 @@
   <dimension ref="A3:E27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1856,12 +1857,12 @@
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="56">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="str">
@@ -1870,7 +1871,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="str">
+      <c r="A5" s="56" t="str">
         <f>INDEX(hospital_lookup!A1:A32,SMR!A4)</f>
         <v>N101H</v>
       </c>
@@ -1889,19 +1890,19 @@
         <v>S08000020</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="C7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1938,7 +1939,7 @@
     <row r="11" spans="1:5" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
       <c r="B11" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -1948,13 +1949,13 @@
     <row r="13" spans="1:5" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="21"/>
       <c r="B14" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -1964,19 +1965,19 @@
     <row r="16" spans="1:5" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
       <c r="B16" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" s="20"/>
     </row>
@@ -2065,15 +2066,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A3:M44"/>
+  <dimension ref="A3:M43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="0.625" style="10" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="11" customWidth="1"/>
     <col min="3" max="4" width="11.5" style="11" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="12" customWidth="1"/>
@@ -2083,12 +2084,12 @@
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="56">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="str">
@@ -2116,23 +2117,23 @@
         <v>S08000020</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="C7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="54">
         <v>1</v>
       </c>
       <c r="B8" s="11" t="e">
@@ -2153,7 +2154,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="21">
         <v>2</v>
       </c>
       <c r="B9" s="11" t="e">
@@ -2174,7 +2175,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="21">
         <v>3</v>
       </c>
       <c r="B10" s="11" t="e">
@@ -2195,7 +2196,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="21">
         <v>4</v>
       </c>
       <c r="B11" s="11" t="e">
@@ -2216,7 +2217,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="21">
         <v>5</v>
       </c>
       <c r="B12" s="11" t="e">
@@ -2237,7 +2238,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="21">
         <v>6</v>
       </c>
       <c r="B13" s="11" t="e">
@@ -2258,7 +2259,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="21">
         <v>7</v>
       </c>
       <c r="B14" s="11" t="e">
@@ -2279,7 +2280,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="21">
         <v>8</v>
       </c>
       <c r="B15" s="11" t="e">
@@ -2300,7 +2301,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="21">
         <v>9</v>
       </c>
       <c r="B16" s="11" t="e">
@@ -2321,7 +2322,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="10">
         <v>10</v>
       </c>
       <c r="B17" s="11" t="e">
@@ -2342,7 +2343,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="18">
         <v>11</v>
       </c>
       <c r="B18" s="11" t="e">
@@ -2363,7 +2364,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="18">
         <v>12</v>
       </c>
       <c r="B19" s="11" t="e">
@@ -2384,7 +2385,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="18">
         <v>13</v>
       </c>
       <c r="B20" s="11" t="e">
@@ -2405,7 +2406,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="18">
         <v>14</v>
       </c>
       <c r="B21" s="11" t="e">
@@ -2426,7 +2427,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="18">
         <v>15</v>
       </c>
       <c r="B22" s="11" t="e">
@@ -2447,7 +2448,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="18">
         <v>16</v>
       </c>
       <c r="B23" s="11" t="e">
@@ -2468,7 +2469,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24" s="18">
         <v>17</v>
       </c>
       <c r="B24" s="11" t="e">
@@ -2489,7 +2490,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25" s="18">
         <v>18</v>
       </c>
       <c r="B25" s="11" t="e">
@@ -2510,7 +2511,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26" s="18">
         <v>19</v>
       </c>
       <c r="B26" s="11" t="e">
@@ -2531,7 +2532,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="26">
         <v>20</v>
       </c>
       <c r="B27" s="11" t="e">
@@ -2552,90 +2553,77 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:13" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
+    <row r="29" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
       <c r="B29" s="22" t="str">
         <f>"Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of "&amp;TEXT(data_smr!H21,"dd mmm yyyy")</f>
         <v>Source: ISD Scotland (SMR01) linked dataset. Reflects the completeness of SMR01 submissions to ISD for individual hospitals as of 00 Jan 1900</v>
       </c>
       <c r="M29" s="24"/>
     </row>
-    <row r="30" spans="1:13" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
+    <row r="30" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
       <c r="B30" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
       <c r="B31" s="25"/>
     </row>
-    <row r="32" spans="1:13" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
+    <row r="32" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
       <c r="B32" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
       <c r="B33" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2696,7 +2684,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -6618,7 +6606,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -16671,8 +16659,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -16685,7 +16673,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>3</v>
@@ -16694,54 +16682,54 @@
         <v>18</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>1</v>
@@ -16750,26 +16738,26 @@
         <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>4</v>
@@ -16778,12 +16766,12 @@
         <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>2</v>
@@ -16792,343 +16780,343 @@
         <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="49" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="49" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="49" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="49" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="49" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="49" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B31" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B32" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -17156,6 +17144,7 @@
       <c r="D40" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:D32"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>